--- a/cv32e40s/docs/VerifPlans/Simulation/privileged_spec/CV32E40S_PMP.xlsx
+++ b/cv32e40s/docs/VerifPlans/Simulation/privileged_spec/CV32E40S_PMP.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ropeders\Documents\pmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1525C0B7-AFCD-42B8-9082-5427206CB98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB98771-D2E0-4BCD-9B48-E1C5C72D530F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="High-level Feature" sheetId="1" r:id="rId1"/>
     <sheet name="DONOTDELETE" sheetId="2" r:id="rId2"/>
     <sheet name="References" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -27,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="476">
   <si>
     <t>Requirement Location</t>
   </si>
@@ -834,34 +845,19 @@
     <t>Be in M-mode and U-mode (separate runs), access a region where L is set and where RWX {grant, deny R, deny W, deny X}, ensure that the access is correspondingly granted/denied.</t>
   </si>
   <si>
-    <t>Be in M-mode, access a region where L is clear, ensure that access is granted in all cases.</t>
-  </si>
-  <si>
     <t>"When the L bit is clear […] the R/W/X permissions apply only to S and U modes."</t>
   </si>
   <si>
     <t>Be in U-mode, access a region where L is clear, ensure that access is granted/denied based on RWX.</t>
   </si>
   <si>
-    <t>Access a region that is covered by multiple rules, ensure that the lowest indexed match determines the outcome.
-Note: Requires that the rules would disagree on the outcome.
-Note: Try only partial byte matches in addition to full matches (maybe one byte in each of two regions).</t>
-  </si>
-  <si>
     <t>TimeAllowance</t>
   </si>
   <si>
     <t>Some verification goals in this plan has a "base level" of checking plus some optional tweaks that might be tried. It is up to the testing implementation how to prioritize and potentially skip the extras, according to what time allows.</t>
   </si>
   <si>
-    <t>Have a region where LRWX would grant an access, access the region with less than all bytes matching, ensure that the access is denied.
-Note: Try a cross of "allmatch/not x wouldgrant/not".</t>
-  </si>
-  <si>
     <t>Access a pmp region where L and the privmode etc is such that nothing else would deny the access, ensure that each of (or a combination of) RWX can either grant or deny the access.</t>
-  </si>
-  <si>
-    <t>Be in M-mode, access a region where no rule matches, ensure that the access is granted (where MMWP is off).</t>
   </si>
   <si>
     <t>"If no PMP entry matches an S-mode or U-mode access, but at least one PMP entry is implemented, the access fails."
@@ -901,11 +897,6 @@
     <t>Try writing any values to the registers and read values out of them, ensure that neither reads nor writes causes exceptions, and ensure that all read values are legal or otherwise as expected and that illegally written fields don't change.</t>
   </si>
   <si>
-    <t>Try to access any of the pmp CSRs from U-mode, ensure that it always gives "illegal instruction exception" and that the CSRs are not updated.
-Note: M-mode accesses are covered by AlwaysAccessible below.
-Note: Should be covered by the CSRs vplan too.</t>
-  </si>
-  <si>
     <t>Run with different configs to test parameters in low/mid/high ranges and in combination with the other parameters, instantiate checking on both instruction-side and data-side, write coverage to see all relevant region overlap combinations and to see an exhaustive combination of block-level input combinations and functional-level states.</t>
   </si>
   <si>
@@ -913,9 +904,6 @@
 When a cfg is set to off but its address(es) (interpreted as napot/tor) is the only rule that matches an attempted access, then it still does not count as a match.</t>
   </si>
   <si>
-    <t>Have a region's address(es) set up as tor and napot (separate runs), have all other regions not include the target address, have the target region's rule be OFF, make an access within that range, ensure that the outcome is the same as for when an access is outside of all address ranges.</t>
-  </si>
-  <si>
     <t>"If TOR is selected, the associated address register forms the top of the address range, and the preceding PMP address register forms the bottom of the address range. If PMP entry i’s A field is set to TOR, the entry matches any address y such that pmpaddri−1 ≤ y &lt; pmpaddri (irrespective  of the value of pmpcfgi−1)"</t>
   </si>
   <si>
@@ -938,9 +926,6 @@
 Note: Cover with MPRV too.</t>
   </si>
   <si>
-    <t>Have a locked pmp entry i, set RLB to 1, try modifying any field within {pmpicfg, pmpaddri, pmpaddri-1(tor)}, ensure that values are updated succesfully (while respecting other rules like legal values and reserved bits).</t>
-  </si>
-  <si>
     <t>misc</t>
   </si>
   <si>
@@ -1047,10 +1032,6 @@
   </si>
   <si>
     <t>Ensure that illegal/reserved mseccfg/L/RWX combinations are unreachable.</t>
-  </si>
-  <si>
-    <t>Depending on the mseccfg control bits and L, some RWX combinations are reserved.
-Note: Use the table from the spec. (And notice that the table is not complete.)</t>
   </si>
   <si>
     <t>All legal states in the table are reachable. It could theoretically be that platform-specific constraints made certain states unreachable (particularily related to locking), but we should be able to reach all legal and supported combinations of settings.</t>
@@ -1089,10 +1070,6 @@
     <t>Read mseccfgh, ensure it is always 0.</t>
   </si>
   <si>
-    <t>(Overlaps with LegalRwx and RwReservedabove.) Read all fields of all pmp-related csrs, ensure there are no unsupported values anywhere (at all times).
-Note: The smepmp table helps.</t>
-  </si>
-  <si>
     <t>"CSRs (or bitfields of CSRs) related to PMP entries with number PMP_NUM_REGIONS and above are hardwired to zero."
 Note: Including upper parts of pmpcfgn and also pmpaddr.</t>
   </si>
@@ -1153,17 +1130,8 @@
     <t>Attempt stores (and store-conditionals and amo) to a region that pmp denies writing to, ensure that a "store/amo access fault" exception occurs (read mcause and rvfi signals).</t>
   </si>
   <si>
-    <t>Observe that the pmp causes an exception, ensure that alert minor is raised (for all three types).</t>
-  </si>
-  <si>
     <t>Observe an alert signal going high while there is no pmp error that should have caused it, ensure that another viable reason for the alert was present.
 Note: This is slightly out of scope for this vplan, so if it is not very easy to hook on to existing xsecure (helper-)signals then this can be skipped.</t>
-  </si>
-  <si>
-    <t>Perform a misaligned load that translates to mulpitle accesses, let the first access reach the bus but the second one be denied by pmp, ensure that the register file is not updated.</t>
-  </si>
-  <si>
-    <t>Perform a misaligned load that translates to mulpitle accesses, let any of the accesses be denied by pmp, ensure an exception occurs.</t>
   </si>
   <si>
     <t>Observe a transaction request coming in to the pmp module, observe the pmp denying the access, ensure that the obi bus is shielded from the transaction request.</t>
@@ -1311,11 +1279,6 @@
 Note: If satisfactory mepc checking already exist then it is acceptable to just add covers for the pmp scenarios.</t>
   </si>
   <si>
-    <t>Attempt such an instruction, ensure that the denied access does not reach the bus, ensure that following accesses also do not reach the bus.
-Note: Both parts of the table jump can fail.
-Note: At minimum need to write a pmp-specific cover, but coordinate with Zc vplan to ensure the checker is written too.</t>
-  </si>
-  <si>
     <t>ClicVector</t>
   </si>
   <si>
@@ -1323,6 +1286,359 @@
   </si>
   <si>
     <t>(Analogous to TableJump above.)</t>
+  </si>
+  <si>
+    <t>COV: ???</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>A: ???
+COV: ???</t>
+  </si>
+  <si>
+    <t>A: ???</t>
+  </si>
+  <si>
+    <t>A: ???
+DTC: cv32e40s/tests/programs/custom/pmp/</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.rvfi_i.pmprvfi_assert_i.a_noloadstore_musttrap
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.rvfi_i.pmprvfi_assert_i.a_noloadstore_cause_load
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.rvfi_i.pmprvfi_assert_i.a_noloadstore_cause_store
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.rvfi_i.pmprvfi_assert_i.a_noloadstore_splittrap
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.rvfi_i.pmprvfi_assert_i.a_noexec_musttrap
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.rvfi_i.pmprvfi_assert_i.a_noexec_cause
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.rvfi_i.pmprvfi_assert_i.a_noexec_splittrap
+COV: ???</t>
+  </si>
+  <si>
+    <t>(Shares asserts with "WaitUpdate" above.)
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.rvfi_i.pmprvfi_assert_i.gen_rvfi_csr_writes[0].a_rvfi_cfg_writes
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.rvfi_i.pmprvfi_assert_i.gen_rvfi_csr_writes[0].a_rvfi_addr_writes</t>
+  </si>
+  <si>
+    <t>NotIgnore</t>
+  </si>
+  <si>
+    <t>When neither cfg i is locked, nor is cfg i+1 a locked TOR region, then writes to cfg and addr i are not ignored.</t>
+  </si>
+  <si>
+    <t>Have cfg i unlocked, write to cfg and addr csr i, check that it changes.</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.rvfi_i.pmprvfi_assert_i.gen_until_reset[*].a_until_reset</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.rvfi_i.pmprvfi_assert_i.a_until_reset_notbefore
+COV: ???</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.rvfi_i.pmprvfi_assert_i.a_granularity_determination</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.rvfi_i.pmprvfi_assert_i.gen_storage_unaffected[*].a_storage_unaffected
+COV: ???</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.rvfi_i.pmprvfi_assert_i.gen_all_zeros_g1.gen_all_zeros_i[*].a_all_zeros
+COV: ???</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.rvfi_i.pmprvfi_assert_i.gen_napot_ones_g2.gen_napot_ones_i[*].a_napot_ones</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.rvfi_i.pmprvfi_assert_i.a_csrs_mmode_only
+COV: ???
+DTC: cv32e40s/tests/programs/custom/pmp/</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.load_store_unit_i.mpu_i.pmp.pmp_i.u_pmp_assert_lsu.gen_supress_req_data.a_suppress_req_data
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.if_stage_i.mpu_i.pmp.pmp_i.u_pmp_assert_if_stage.gen_supress_req_instr.a_suppress_req_instr</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.if_stage_i.mpu_i.pmp.pmp_i.u_pmp_assert_if_stage.gen_pmp_assert.a_mseccfg_reset_val
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.load_store_unit_i.mpu_i.pmp.pmp_i.u_pmp_assert_lsu.gen_pmp_assert.a_mseccfg_reset_val</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.if_stage_i.mpu_i.pmp.pmp_i.u_pmp_assert_if_stage.gen_pmp_assert.a_lrwx_aftermatch
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.load_store_unit_i.mpu_i.pmp.pmp_i.u_pmp_assert_lsu.gen_pmp_assert.a_lrwx_aftermatch
+COV: ???</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.if_stage_i.mpu_i.pmp.pmp_i.u_pmp_assert_if_stage.gen_pmp_assert.a_nomatch_mmode_mmwp_fails
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.load_store_unit_i.mpu_i.pmp.pmp_i.u_pmp_assert_lsu.gen_pmp_assert.a_nomatch_mmode_mmwp_fails
+COV: ???</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.if_stage_i.mpu_i.pmp.pmp_i.u_pmp_assert_if_stage.gen_pmp_assert.a_nomatch_umode_fails
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.load_store_unit_i.mpu_i.pmp.pmp_i.u_pmp_assert_lsu.gen_pmp_assert.a_nomatch_umode_fails
+COV: ???</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.if_stage_i.mpu_i.pmp.pmp_i.u_pmp_assert_if_stage.gen_pmp_assert.a_mml_never_fall_until_reset
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.load_store_unit_i.mpu_i.pmp.pmp_i.u_pmp_assert_lsu.gen_pmp_assert.a_mml_never_fall_until_reset
+COV: ???</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.if_stage_i.mpu_i.pmp.pmp_i.u_pmp_assert_if_stage.gen_pmp_assert.a_mmwp_never_fall_until_reset
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.load_store_unit_i.mpu_i.pmp.pmp_i.u_pmp_assert_lsu.gen_pmp_assert.a_mmwp_never_fall_until_reset</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.if_stage_i.mpu_i.pmp.pmp_i.u_pmp_assert_if_stage.gen_pmp_assert.a_rlb_never_fall_while_locked
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.load_store_unit_i.mpu_i.pmp.pmp_i.u_pmp_assert_lsu.gen_pmp_assert.a_rlb_never_fall_while_locked</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.rvfi_i.pmprvfi_assert_i.gen_cfgwdata_legal[*].a_cfgwdata_legal
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.if_stage_i.mpu_i.pmp.pmp_i.u_pmp_assert_if_stage.gen_rlb_locked_cov[0].a_mmode_only_or_shared_executable_ignore
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.load_store_unit_i.mpu_i.pmp.pmp_i.u_pmp_assert_lsu.gen_rlb_locked_cov[0].a_mmode_only_or_shared_executable_ignore
+COV: ???</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.rvfi_i.pmprvfi_assert_i.gen_rwx_mml[*].a_rwx_mml
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.if_stage_i.mpu_i.pmp.pmp_i.u_pmp_assert_if_stage.gen_rwfuture[*].a_rw_futureuse
+uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.load_store_unit_i.mpu_i.pmp.pmp_i.u_pmp_assert_lsu.gen_rwfuture[*].a_rw_futureuse</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.rvfi_i.pmprvfi_assert_i.gen_rlblifts_lockedexec[*].a_rlblifts_lockedexec</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.if_stage_i.mpu_i.pmp.pmp_i.u_pmp_assert_if_stage.gen_na4onlyg0[*].a_na4_only_g0
+uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.load_store_unit_i.mpu_i.pmp.pmp_i.u_pmp_assert_lsu.gen_na4onlyg0[*].a_na4_only_g0
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.if_stage_i.mpu_i.pmp.pmp_i.u_pmp_assert_if_stage.gen_na4onlyg0[*].a_na4_not_when_g uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.load_store_unit_i.mpu_i.pmp.pmp_i.u_pmp_assert_lsu.gen_na4onlyg0[*].a_na4_not_when_g</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.if_stage_i.mpu_i.pmp.pmp_i.u_pmp_assert_if_stage.gen_pmp_assert.a_uorl_onlyif_rwx
+uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.load_store_unit_i.mpu_i.pmp.pmp_i.u_pmp_assert_lsu.gen_pmp_assert.a_uorl_onlyif_rwx
+COV: ???</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.if_stage_i.mpu_i.pmp.pmp_i.u_pmp_assert_if_stage.gen_rlb_locked[*].a_norlb_locked_rules_cannot_modify uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.load_store_unit_i.mpu_i.pmp.pmp_i.u_pmp_assert_lsu.gen_rlb_locked[*].a_norlb_locked_rules_cannot_modify
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.rvfi_i.pmprvfi_assert_i.gen_ignore_writes_notrap[*].a_ignore_writes_notrap
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.rvfi_i.pmprvfi_assert_i.gen_ignore_writes_nochange[*].a_ignore_writes_nochange
+COV: ???</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.rvfi_i.pmprvfi_assert_i.a_noloadstore_*
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.rvfi_i.pmprvfi_assert_i.a_noexec_*
+COV: ???</t>
+  </si>
+  <si>
+    <t>TODO missing assert</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.rvfi_i.pmprvfi_assert_i.gen_cfg_expected[*].a_cfg_expected
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.rvfi_i.pmprvfi_assert_i.gen_cfgwdata_legal[*].a_cfgwdata_legal
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.rvfi_i.pmprvfi_assert_i.gen_cfgrdata_expected[*].a_cfgrdata_expected
+COV: ???</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.*.mpu_i.pmp.pmp_i.u_pmp_assert_lsu.gen_pmp_assert.a_accept_only_legal
+uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.*.mpu_i.pmp.pmp_i.u_pmp_assert_lsu.gen_pmp_assert.a_deny_only_illegal
+COV: ???</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.*.mpu_i.pmp.pmp_i.u_pmp_assert_lsu.gen_pmp_assert.a_accept_only_legal
+uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.*.mpu_i.pmp.pmp_i.u_pmp_assert_lsu.gen_pmp_assert.a_deny_only_illegal
+COV: ???
+DTC: cv32e40s/tests/programs/custom/pmp/</t>
+  </si>
+  <si>
+    <t>Have a region's address(es) set up as tor and napot (separate runs), have all other regions not include the target address, have the target region's rule be OFF, make an access within that range, ensure that the outcome is the same as for when an access is outside of all address ranges.
+Note: For this and several other items, functional coverage is necessary because the checking doesn't necessarily have the above scenario in its antecedent.
+Coverage: Capture the above scenario, minus the checking.</t>
+  </si>
+  <si>
+    <t>A: (Same checking as for "IgnoreWrites" and "IgnoreTor" above.)
+COV: ???</t>
+  </si>
+  <si>
+    <t>Be in M-mode, access a region where L is clear, ensure that access is granted in all cases.
+(Note, see "Smepmp" above.)</t>
+  </si>
+  <si>
+    <t>Access a region that is covered by multiple rules, ensure that the lowest indexed match determines the outcome.
+Note: Requires that the rules would disagree on the outcome.</t>
+  </si>
+  <si>
+    <t>(Only relevant for 64-bit architectures.)</t>
+  </si>
+  <si>
+    <t>Be in M-mode, access a region where no rule matches, ensure that the access is granted (where MMWP is off).
+(Note, see "Smepmp" above.)</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.*.mpu_i.pmp.pmp_i.u_pmp_assert_lsu.gen_pmp_assert.a_accept_only_legal
+COV: ???</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.rvfi_i.pmprvfi_assert_i.a_noexec_*
+A: &lt;embedded&gt;::uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.rvfi_i.pmprvfi_assert_i.a_noloadstore_*
+COV: ???</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.rvfi_i.pmprvfi_assert_i.a_noexec_splittrap
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.rvfi_i.pmprvfi_assert_i.a_noloadstore_splittrap
+A: ???
+COV: ???</t>
+  </si>
+  <si>
+    <t>Have a locked pmp entry i, set RLB to 1, try modifying any(!) field within {pmpicfg, pmpaddri, pmpaddri-1(tor)}, ensure that values are updated succesfully (while respecting other rules like legal values and reserved bits).</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.rvfi_i.pmprvfi_assert_i.gen_cfg_expected[*].a_cfg_expected
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.rvfi_i.pmprvfi_assert_i.gen_cfgwdata_legal[*].a_cfgwdata_legal
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.rvfi_i.pmprvfi_assert_i.gen_cfgrdata_expected[*].a_cfgrdata_expected</t>
+  </si>
+  <si>
+    <t>Depending on the mseccfg control bits and L, some RWX combinations are reserved.
+Note: Use the table from the spec.</t>
+  </si>
+  <si>
+    <t>(Overlaps with LegalRwx and RwReservedabove.) Read all fields of all pmp-related csrs, ensure there are no unsupported values anywhere (at all times).</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.rvfi_i.pmprvfi_assert_i.gen_cfgrdata_expected[*].a_cfgrdata_expected</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.rvfi_i.pmprvfi_assert_i.a_noexec_cause</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.rvfi_i.pmprvfi_assert_i.a_noloadstore_cause_load
+COV: ???</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.rvfi_i.pmprvfi_assert_i.a_noloadstore_cause_store
+COV: ???</t>
+  </si>
+  <si>
+    <t>(Responsibility of the xsecure vplan. But link to coverage here too.)</t>
+  </si>
+  <si>
+    <t>Waiting for xsecure vplan</t>
+  </si>
+  <si>
+    <t>Waiting for zc vplan</t>
+  </si>
+  <si>
+    <t>(Responsibility of the zc vplan. But link to coverage here too.)
+Note: Could write a pmp-specific cover, but coordinate with Zc vplan to ensure the checker is written too.</t>
+  </si>
+  <si>
+    <t>Waiting for clic vplan</t>
+  </si>
+  <si>
+    <t>Waiting for ongoing spec changes to be resolved</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.rvfi_i.pmprvfi_assert_i.gen_addr_writes[*].a_addr_nonlocked
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.rvfi_i.pmprvfi_assert_i.gen_addr_tor[*].a_addr_nonlocked_tor</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.rvfi_i.pmprvfi_assert_i.gen_ignore_tor[*].a_ignore_tor_stable
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.rvfi_i.pmprvfi_assert_i.gen_ignore_tor[*].a_ignore_tor_wdata
+COV: ???</t>
+  </si>
+  <si>
+    <t>Try to access any of the pmp CSRs from U-mode, ensure that it always gives "illegal instruction exception" and that the CSRs are not updated.
+Note: M-mode accesses are covered by AlwaysAccessible below.</t>
+  </si>
+  <si>
+    <t>A: ???
+COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.*.mpu_i.pmp.pmp_i.*.gen_rlb_locked_cov[*].c_rlb_locked_rules_can_modify_addr
+COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.*.mpu_i.pmp.pmp_i.*.gen_rlb_locked_cov[*].c_rlb_locked_rules_can_modify_exec
+COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.*.mpu_i.pmp.pmp_i.*.gen_rlb_locked_cov[*].c_rlb_locked_rules_can_modify_lock
+COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.*.mpu_i.pmp.pmp_i.*.gen_rlb_locked_cov[*].c_rlb_locked_rules_can_modify_mode
+COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.*.mpu_i.pmp.pmp_i.*.gen_rlb_locked_cov[*].c_rlb_locked_rules_can_modify_read
+COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.*.mpu_i.pmp.pmp_i.*.gen_rlb_locked_cov[*].c_rlb_locked_rules_can_modify_write
+COV: ???</t>
+  </si>
+  <si>
+    <t>TODO missing coverage</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.if_stage_i.mpu_i.pmp.pmp_i.u_pmp_assert_if_stage.gen_na4is4byte.a_na4_is_4byte
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.*.mpu_i.pmp.pmp_i.u_pmp_assert_lsu.gen_pmp_assert.a_accept_only_legal
+uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.*.mpu_i.pmp.pmp_i.u_pmp_assert_lsu.gen_pmp_assert.a_deny_only_illegal
+COV: dut_wrap.cv32e40s_wrapper_i.core_i.*.mpu_i.pmp.pmp_i.*.gen_cg_common.cover_item_covergroup_cg_internals_common_inst_cg_int_coverpoint_cp_napot_encoding_bin_auto[*]
+dut_wrap.cv32e40s_wrapper_i.core_i.*.mpu_i.pmp.pmp_i.*.gen_cg_common.cover_item_covergroup_cg_internals_common_inst_cg_int_coverpoint_cp_napot_encoding_disallowed_bin_auto[*]
+COV: ???</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.*.mpu_i.pmp.pmp_i.u_pmp_assert_lsu.gen_pmp_assert.a_accept_only_legal
+uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.*.mpu_i.pmp.pmp_i.u_pmp_assert_lsu.gen_pmp_assert.a_deny_only_illegal
+COV: dut_wrap.cv32e40s_wrapper_i.core_i.*.mpu_i.pmp.pmp_i.*.gen_cg_common.cover_item_covergroup_cg_internals_common_inst_cg_int_coverpoint_cp_ismatch_tor_bin_auto[*]
+COV: ???</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.*.mpu_i.pmp.pmp_i.u_pmp_assert_lsu.gen_pmp_assert.a_accept_only_legal
+uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.*.mpu_i.pmp.pmp_i.u_pmp_assert_lsu.gen_pmp_assert.a_deny_only_illegal
+COV: dut_wrap.cv32e40s_wrapper_i.core_i.if_stage_i.mpu_i.pmp.pmp_i.u_pmp_assert_if_stage.gen_cp_instr_side.cover_item_covergroup_cg_internals_instr_side_inst_cg_instr_coverpoint_cp_r_mmode_mml_lrwx
+COV: dut_wrap.cv32e40s_wrapper_i.core_i.load_store_unit_i.mpu_i.pmp.pmp_i.u_pmp_assert_lsu.gen_cp_data_side.cover_item_covergroup_cg_internals_data_side_inst_cg_instr_coverpoint_cp_r_mmode_mml_lrwx
+COV: dut_wrap.cv32e40s_wrapper_i.core_i.load_store_unit_i.mpu_i.pmp.pmp_i.u_pmp_assert_lsu.gen_cp_data_side.cover_item_covergroup_cg_internals_data_side_inst_cg_instr_coverpoint_cp_r_umode_mml_lrwx
+COV: ???</t>
+  </si>
+  <si>
+    <t>TODO technically missing the "the rest … excepts" cover</t>
+  </si>
+  <si>
+    <t>TODO missing coverage. (Just do a cg with crosses of all of these variables.)</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.*.mpu_i.pmp.pmp_i.u_pmp_assert_lsu.gen_pmp_assert.a_accept_only_legal
+uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.*.mpu_i.pmp.pmp_i.u_pmp_assert_lsu.gen_pmp_assert.a_deny_only_illegal
+COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.load_store_unit_i.mpu_i.pmp.pmp_i.u_pmp_assert_lsu.gen_cp_data_side.cg_data
+COV: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.if_stage_i.mpu_i.pmp.pmp_i.u_pmp_assert_if_stage.gen_cp_instr_side.cg_instr
+COV: ???</t>
+  </si>
+  <si>
+    <t>(Same as for "MmodeDeny")</t>
+  </si>
+  <si>
+    <t>TODO missing cover</t>
+  </si>
+  <si>
+    <t>TODO missing cover (combine with "Warl" above)</t>
+  </si>
+  <si>
+    <t>TODO missing assert
+TODO missing cover</t>
+  </si>
+  <si>
+    <t>High Priority</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>(Handled by "SplitLoadException" below, because: One only needs to show that an exception is caused, and the exceptions vplan is responsible for checking what that means for the regfile. (But link to coverage here too.))</t>
+  </si>
+  <si>
+    <t>Waiting for exceptions vplan</t>
+  </si>
+  <si>
+    <t>Perform a misaligned load that translates to multiple accesses, let any of the accesses be denied by pmp, ensure an exception occurs.
+Coverage: See rvfi retire with exception cause from pmp, while the "low addr" model checking gave access granted.</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.rvfi_i.pmprvfi_assert_i.a_noexec_*
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.rvfi_i.pmprvfi_assert_i.a_noloadstore_*
+(Indirectly checked by those asserts)</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.rvfi_i.pmprvfi_assert_i.a_noexec_*
+A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.rvfi_i.pmprvfi_assert_i.a_noloadstore_*
+(Indirectly checked by those asserts, together with effective priv mode and umode asserts for dmode/mmode.)
+COV: ???</t>
+  </si>
+  <si>
+    <t>TODO missing assert (on split that errs on first)
+TODO missing cover</t>
+  </si>
+  <si>
+    <t>High Priority?</t>
   </si>
 </sst>
 </file>
@@ -1832,30 +2148,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I132"/>
+  <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
-    <col min="4" max="4" width="51.28515625" customWidth="1"/>
-    <col min="5" max="5" width="41.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="25.42578125" customWidth="1"/>
-    <col min="1024" max="1024" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="32.109375" customWidth="1"/>
+    <col min="4" max="4" width="51.33203125" customWidth="1"/>
+    <col min="5" max="5" width="41.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" customWidth="1"/>
+    <col min="8" max="9" width="22.88671875" customWidth="1"/>
+    <col min="10" max="10" width="75.88671875" customWidth="1"/>
+    <col min="11" max="11" width="25.44140625" customWidth="1"/>
+    <col min="1025" max="1025" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="8" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1881,10 +2197,16 @@
         <v>7</v>
       </c>
       <c r="I1" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="9" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="153" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="s">
         <v>64</v>
@@ -1893,7 +2215,7 @@
         <v>65</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>24</v>
@@ -1907,11 +2229,13 @@
       <c r="H2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="I2" s="10"/>
+      <c r="J2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" ht="69" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10" t="s">
@@ -1932,18 +2256,20 @@
       <c r="H3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="10"/>
+      <c r="J3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="1:11" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
         <v>256</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>24</v>
@@ -1957,18 +2283,20 @@
       <c r="H4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="I4" s="10"/>
+      <c r="J4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="1:11" ht="69" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>24</v>
@@ -1982,11 +2310,13 @@
       <c r="H5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="I5" s="10"/>
+      <c r="J5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="10"/>
+    </row>
+    <row r="6" spans="1:11" ht="138" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>31</v>
       </c>
@@ -2000,7 +2330,7 @@
         <v>207</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>25</v>
@@ -2012,18 +2342,24 @@
         <v>15</v>
       </c>
       <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="J6" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>25</v>
@@ -2035,8 +2371,12 @@
         <v>24</v>
       </c>
       <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="1:9" ht="171.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="1:11" ht="171.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10" t="s">
@@ -2046,7 +2386,7 @@
         <v>208</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>19</v>
@@ -2057,9 +2397,17 @@
       <c r="H8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="I8" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10" t="s">
@@ -2081,8 +2429,14 @@
         <v>18</v>
       </c>
       <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="J9" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10" t="s">
@@ -2104,8 +2458,14 @@
         <v>18</v>
       </c>
       <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="J10" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="s">
         <v>216</v>
@@ -2117,7 +2477,7 @@
         <v>35</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>19</v>
@@ -2129,18 +2489,24 @@
         <v>18</v>
       </c>
       <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="J11" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>19</v>
@@ -2152,8 +2518,14 @@
         <v>15</v>
       </c>
       <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="J12" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10" t="s">
@@ -2163,7 +2535,7 @@
         <v>217</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>280</v>
+        <v>454</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>19</v>
@@ -2174,9 +2546,17 @@
       <c r="H13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="1:9" ht="179.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="179.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10" t="s">
@@ -2186,7 +2566,7 @@
         <v>219</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>19</v>
@@ -2198,8 +2578,14 @@
         <v>15</v>
       </c>
       <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="1:9" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J14" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10" t="s">
@@ -2209,7 +2595,7 @@
         <v>221</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>25</v>
@@ -2220,9 +2606,17 @@
       <c r="H15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="1:9" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="238.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
         <v>36</v>
@@ -2231,10 +2625,10 @@
         <v>37</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>283</v>
+        <v>429</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>19</v>
@@ -2246,18 +2640,24 @@
         <v>15</v>
       </c>
       <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="265.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10" t="s">
         <v>202</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>19</v>
@@ -2269,18 +2669,24 @@
         <v>15</v>
       </c>
       <c r="I17" s="10"/>
-    </row>
-    <row r="18" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="J17" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>19</v>
@@ -2292,8 +2698,14 @@
         <v>15</v>
       </c>
       <c r="I18" s="10"/>
-    </row>
-    <row r="19" spans="1:9" ht="77.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="136.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10" t="s">
@@ -2303,7 +2715,7 @@
         <v>39</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>19</v>
@@ -2315,8 +2727,14 @@
         <v>15</v>
       </c>
       <c r="I19" s="10"/>
-    </row>
-    <row r="20" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="J19" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10" t="s">
@@ -2326,7 +2744,7 @@
         <v>42</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>19</v>
@@ -2338,8 +2756,14 @@
         <v>15</v>
       </c>
       <c r="I20" s="10"/>
-    </row>
-    <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J20" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10" t="s">
@@ -2349,7 +2773,7 @@
         <v>43</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>19</v>
@@ -2361,8 +2785,14 @@
         <v>18</v>
       </c>
       <c r="I21" s="10"/>
-    </row>
-    <row r="22" spans="1:9" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J21" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="194.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10" t="s">
@@ -2372,7 +2802,7 @@
         <v>46</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>19</v>
@@ -2383,9 +2813,15 @@
       <c r="H22" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="10"/>
-    </row>
-    <row r="23" spans="1:9" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="K22" s="10"/>
+    </row>
+    <row r="23" spans="1:11" ht="128.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10" t="s">
@@ -2395,7 +2831,7 @@
         <v>226</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>25</v>
@@ -2406,21 +2842,23 @@
       <c r="H23" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I23" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="I23" s="10"/>
+      <c r="J23" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" s="10"/>
+    </row>
+    <row r="24" spans="1:11" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10" t="s">
         <v>47</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>19</v>
@@ -2431,9 +2869,15 @@
       <c r="H24" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I24" s="10"/>
-    </row>
-    <row r="25" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="I24" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="K24" s="10"/>
+    </row>
+    <row r="25" spans="1:11" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10" t="s">
@@ -2454,9 +2898,17 @@
       <c r="H25" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="10"/>
-    </row>
-    <row r="26" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="I25" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10" t="s">
@@ -2478,8 +2930,14 @@
         <v>18</v>
       </c>
       <c r="I26" s="10"/>
-    </row>
-    <row r="27" spans="1:9" ht="227.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J26" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10" t="s">
@@ -2500,16 +2958,24 @@
       <c r="H27" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I27" s="10"/>
-    </row>
-    <row r="28" spans="1:9" ht="207.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="189" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10" t="s">
         <v>53</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>255</v>
@@ -2523,9 +2989,15 @@
       <c r="H28" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I28" s="10"/>
-    </row>
-    <row r="29" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="I28" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="K28" s="10"/>
+    </row>
+    <row r="29" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10" t="s">
@@ -2546,11 +3018,13 @@
       <c r="H29" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="10"/>
+      <c r="J29" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="10"/>
+    </row>
+    <row r="30" spans="1:11" ht="135.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="s">
         <v>72</v>
@@ -2562,7 +3036,7 @@
         <v>56</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>19</v>
@@ -2573,9 +3047,15 @@
       <c r="H30" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I30" s="10"/>
-    </row>
-    <row r="31" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="I30" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="K30" s="10"/>
+    </row>
+    <row r="31" spans="1:11" ht="234.6" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10" t="s">
@@ -2585,7 +3065,7 @@
         <v>58</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>19</v>
@@ -2596,9 +3076,17 @@
       <c r="H31" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I31" s="10"/>
-    </row>
-    <row r="32" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="I31" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10" t="s">
@@ -2620,18 +3108,24 @@
         <v>15</v>
       </c>
       <c r="I32" s="10"/>
-    </row>
-    <row r="33" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="J32" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10" t="s">
-        <v>63</v>
+        <v>400</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>62</v>
+        <v>401</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>258</v>
+        <v>402</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>19</v>
@@ -2640,21 +3134,25 @@
         <v>23</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I33" s="10"/>
-    </row>
-    <row r="34" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="J33" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="K33" s="10"/>
+    </row>
+    <row r="34" spans="1:11" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>19</v>
@@ -2665,19 +3163,27 @@
       <c r="H34" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I34" s="10"/>
-    </row>
-    <row r="35" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="I34" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="102" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>19</v>
@@ -2686,46 +3192,56 @@
         <v>23</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I35" s="10"/>
-    </row>
-    <row r="36" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J35" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="69" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D37" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E37" s="10" t="s">
         <v>261</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I36" s="10"/>
-    </row>
-    <row r="37" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>263</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>19</v>
@@ -2737,18 +3253,26 @@
         <v>15</v>
       </c>
       <c r="I37" s="10"/>
-    </row>
-    <row r="38" spans="1:9" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J37" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="102" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
+      <c r="B38" s="10" t="s">
+        <v>73</v>
+      </c>
       <c r="C38" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>266</v>
+        <v>432</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>19</v>
@@ -2760,89 +3284,107 @@
         <v>15</v>
       </c>
       <c r="I38" s="10"/>
-    </row>
-    <row r="39" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="J38" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>222</v>
+        <v>77</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>267</v>
+        <v>433</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I39" s="10"/>
-    </row>
-    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J39" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K39" s="10"/>
+    </row>
+    <row r="40" spans="1:11" ht="154.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10" t="s">
-        <v>381</v>
+        <v>78</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>80</v>
+        <v>264</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I40" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10" t="s">
-        <v>81</v>
+        <v>369</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>268</v>
+        <v>80</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I41" s="10"/>
-    </row>
-    <row r="42" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="J41" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K41" s="10"/>
+    </row>
+    <row r="42" spans="1:11" ht="69" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>269</v>
+        <v>82</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>270</v>
+        <v>434</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>19</v>
@@ -2854,18 +3396,24 @@
         <v>15</v>
       </c>
       <c r="I42" s="10"/>
-    </row>
-    <row r="43" spans="1:9" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J42" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="K42" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>85</v>
+        <v>265</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>19</v>
@@ -2876,19 +3424,27 @@
       <c r="H43" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I43" s="10"/>
-    </row>
-    <row r="44" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="I43" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>19</v>
@@ -2900,18 +3456,24 @@
         <v>15</v>
       </c>
       <c r="I44" s="10"/>
-    </row>
-    <row r="45" spans="1:9" ht="244.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J44" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>399</v>
+        <v>87</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>19</v>
@@ -2922,69 +3484,93 @@
       <c r="H45" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I45" s="10"/>
-    </row>
-    <row r="46" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
+      <c r="I45" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="J45" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="K45" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="244.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B47" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C47" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D47" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="E46" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H46" s="10" t="s">
+      <c r="E47" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I46" s="10"/>
-    </row>
-    <row r="47" spans="1:9" ht="330" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I47" s="10"/>
-    </row>
-    <row r="48" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="I47" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="J47" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="K47" s="10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="303.60000000000002" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>246</v>
+        <v>92</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>19</v>
@@ -2993,92 +3579,118 @@
         <v>23</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I48" s="10"/>
-    </row>
-    <row r="49" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="J48" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="K48" s="10" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>95</v>
+        <v>246</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H49" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I49" s="10"/>
-    </row>
-    <row r="50" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="I49" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="K49" s="10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="10"/>
+      <c r="C50" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="K50" s="10"/>
+    </row>
+    <row r="51" spans="1:11" ht="372.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C51" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D51" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E50" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H50" s="10" t="s">
+      <c r="E51" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I50" s="10"/>
-    </row>
-    <row r="51" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H51" s="10" t="s">
-        <v>18</v>
-      </c>
       <c r="I51" s="10"/>
-    </row>
-    <row r="52" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J51" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>100</v>
+        <v>288</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>19</v>
@@ -3087,96 +3699,116 @@
         <v>23</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I52" s="10"/>
-    </row>
-    <row r="53" spans="1:9" ht="108.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="K52" s="10"/>
+    </row>
+    <row r="53" spans="1:11" ht="69" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D54" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="E53" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H53" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I53" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10" t="s">
+      <c r="E54" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K54" s="10"/>
+    </row>
+    <row r="55" spans="1:11" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="10"/>
+      <c r="B55" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C55" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D55" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E54" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H54" s="10" t="s">
+      <c r="E55" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H55" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I54" s="10"/>
-    </row>
-    <row r="55" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10" t="s">
+      <c r="I55" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="K55" s="10"/>
+    </row>
+    <row r="56" spans="1:11" ht="151.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D56" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E55" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H55" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I55" s="10"/>
-    </row>
-    <row r="56" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>109</v>
-      </c>
       <c r="E56" s="10" t="s">
-        <v>382</v>
+        <v>292</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>19</v>
@@ -3187,19 +3819,29 @@
       <c r="H56" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I56" s="10"/>
-    </row>
-    <row r="57" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="I56" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="K56" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
+      <c r="B57" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="C57" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>300</v>
+        <v>109</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>301</v>
+        <v>370</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>19</v>
@@ -3210,19 +3852,27 @@
       <c r="H57" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I57" s="10"/>
-    </row>
-    <row r="58" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="I57" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="J57" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="K57" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="207" x14ac:dyDescent="0.3">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>112</v>
+        <v>293</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>19</v>
@@ -3231,21 +3881,29 @@
         <v>23</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I58" s="10"/>
-    </row>
-    <row r="59" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="J58" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="K58" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="69" x14ac:dyDescent="0.3">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>19</v>
@@ -3254,92 +3912,116 @@
         <v>23</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I59" s="10"/>
-    </row>
-    <row r="60" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="I59" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="J59" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="K59" s="10"/>
+    </row>
+    <row r="60" spans="1:11" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="K60" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D61" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="E60" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60" s="10" t="s">
+      <c r="E61" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H60" s="10" t="s">
+      <c r="H61" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I60" s="10"/>
-    </row>
-    <row r="61" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10" t="s">
+      <c r="I61" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="J61" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="K61" s="10"/>
+    </row>
+    <row r="62" spans="1:11" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C62" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D61" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H61" s="10" t="s">
+      <c r="D62" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H62" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I61" s="10"/>
-    </row>
-    <row r="62" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H62" s="10" t="s">
-        <v>18</v>
-      </c>
       <c r="I62" s="10"/>
-    </row>
-    <row r="63" spans="1:9" ht="127.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J62" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="K62" s="10" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>19</v>
@@ -3348,21 +4030,27 @@
         <v>23</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I63" s="10"/>
-    </row>
-    <row r="64" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="J63" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="K63" s="10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="127.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>122</v>
+        <v>302</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>394</v>
+        <v>303</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>19</v>
@@ -3373,19 +4061,27 @@
       <c r="H64" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I64" s="10"/>
-    </row>
-    <row r="65" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="I64" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="J64" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="K64" s="10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>311</v>
+        <v>122</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>312</v>
+        <v>382</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>19</v>
@@ -3396,19 +4092,27 @@
       <c r="H65" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I65" s="10"/>
-    </row>
-    <row r="66" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="I65" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="J65" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="K65" s="10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="207" x14ac:dyDescent="0.3">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>125</v>
+        <v>304</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F66" s="10" t="s">
         <v>19</v>
@@ -3417,21 +4121,27 @@
         <v>23</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I66" s="10"/>
-    </row>
-    <row r="67" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J66" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="K66" s="10" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="F67" s="10" t="s">
         <v>19</v>
@@ -3443,18 +4153,24 @@
         <v>15</v>
       </c>
       <c r="I67" s="10"/>
-    </row>
-    <row r="68" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J67" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="K67" s="10" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F68" s="10" t="s">
         <v>19</v>
@@ -3466,18 +4182,24 @@
         <v>15</v>
       </c>
       <c r="I68" s="10"/>
-    </row>
-    <row r="69" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="J68" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="K68" s="10" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>316</v>
+        <v>129</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F69" s="10" t="s">
         <v>19</v>
@@ -3489,18 +4211,24 @@
         <v>15</v>
       </c>
       <c r="I69" s="10"/>
-    </row>
-    <row r="70" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J69" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="K69" s="10" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>132</v>
+        <v>309</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="F70" s="10" t="s">
         <v>19</v>
@@ -3512,18 +4240,24 @@
         <v>15</v>
       </c>
       <c r="I70" s="10"/>
-    </row>
-    <row r="71" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="J70" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="K70" s="10" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>320</v>
+        <v>132</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="F71" s="10" t="s">
         <v>19</v>
@@ -3535,18 +4269,24 @@
         <v>15</v>
       </c>
       <c r="I71" s="10"/>
-    </row>
-    <row r="72" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="J71" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="K71" s="10" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>135</v>
+        <v>313</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="F72" s="10" t="s">
         <v>19</v>
@@ -3555,21 +4295,27 @@
         <v>23</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I72" s="10"/>
-    </row>
-    <row r="73" spans="1:9" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J72" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="K72" s="10" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="F73" s="10" t="s">
         <v>19</v>
@@ -3581,141 +4327,165 @@
         <v>15</v>
       </c>
       <c r="I73" s="10"/>
-    </row>
-    <row r="74" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="J73" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="K73" s="10" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="103.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I74" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="K74" s="10" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="69" x14ac:dyDescent="0.3">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I75" s="10"/>
-    </row>
-    <row r="76" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="J75" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K75" s="10"/>
+    </row>
+    <row r="76" spans="1:11" ht="312" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H76" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="K76" s="10" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A77" s="10"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="D76" s="10" t="s">
+      <c r="D77" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="E76" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="F76" s="10" t="s">
+      <c r="E77" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="F77" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G76" s="10" t="s">
+      <c r="G77" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H76" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I76" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A77" s="10"/>
-      <c r="B77" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="E77" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="F77" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G77" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="H77" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I77" s="10"/>
-    </row>
-    <row r="78" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="J77" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K77" s="10"/>
+    </row>
+    <row r="78" spans="1:11" ht="162.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10"/>
       <c r="B78" s="10" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="C78" s="10"/>
       <c r="D78" s="10" t="s">
-        <v>327</v>
+        <v>440</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I78" s="10"/>
-    </row>
-    <row r="79" spans="1:9" ht="135.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="10" t="s">
-        <v>33</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I78" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="J78" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="K78" s="10"/>
+    </row>
+    <row r="79" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="10"/>
       <c r="B79" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>151</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="C79" s="10"/>
       <c r="D79" s="10" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="F79" s="10" t="s">
         <v>25</v>
@@ -3727,18 +4497,28 @@
         <v>15</v>
       </c>
       <c r="I79" s="10"/>
-    </row>
-    <row r="80" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A80" s="10"/>
-      <c r="B80" s="10"/>
+      <c r="J79" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="K79" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="135.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>150</v>
+      </c>
       <c r="C80" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>155</v>
+        <v>323</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="F80" s="10" t="s">
         <v>25</v>
@@ -3750,114 +4530,144 @@
         <v>15</v>
       </c>
       <c r="I80" s="10"/>
-    </row>
-    <row r="81" spans="1:9" ht="127.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J80" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="K80" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="69" x14ac:dyDescent="0.3">
       <c r="A81" s="10"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>383</v>
+        <v>324</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H81" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I81" s="10"/>
-    </row>
-    <row r="82" spans="1:9" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J81" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="K81" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="127.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H82" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I82" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="J82" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="K82" s="10" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="10"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="D82" s="10" t="s">
+      <c r="D83" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="E82" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="F82" s="10" t="s">
+      <c r="E83" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="F83" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G82" s="10" t="s">
+      <c r="G83" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H82" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I82" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A83" s="10"/>
-      <c r="B83" s="10" t="s">
+      <c r="H83" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K83" s="10"/>
+    </row>
+    <row r="84" spans="1:11" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="10"/>
+      <c r="B84" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C84" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="D83" s="10" t="s">
+      <c r="D84" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="E83" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="F83" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" s="10" t="s">
+      <c r="E84" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G84" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="H83" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I83" s="10"/>
-    </row>
-    <row r="84" spans="1:9" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="10"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="E84" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="F84" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G84" s="10" t="s">
-        <v>23</v>
       </c>
       <c r="H84" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I84" s="10"/>
-    </row>
-    <row r="85" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I84" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="J84" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="K84" s="10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>336</v>
+        <v>441</v>
       </c>
       <c r="F85" s="10" t="s">
         <v>19</v>
@@ -3869,18 +4679,22 @@
         <v>18</v>
       </c>
       <c r="I85" s="10"/>
-    </row>
-    <row r="86" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="J85" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="K85" s="10"/>
+    </row>
+    <row r="86" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>338</v>
+        <v>163</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="F86" s="10" t="s">
         <v>19</v>
@@ -3889,156 +4703,194 @@
         <v>23</v>
       </c>
       <c r="H86" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I86" s="10"/>
-    </row>
-    <row r="87" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="I86" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="J86" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="K86" s="10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A87" s="10"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H87" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I87" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="J87" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="K87" s="10" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="10"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="D87" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="F87" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G87" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H87" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I87" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="158.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="10"/>
-      <c r="B88" s="10" t="s">
+      <c r="D88" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H88" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I88" s="10"/>
+      <c r="J88" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K88" s="10"/>
+    </row>
+    <row r="89" spans="1:11" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="10"/>
+      <c r="B89" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C89" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="D88" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="E88" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="F88" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G88" s="10" t="s">
+      <c r="D89" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="F89" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G89" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="H88" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I88" s="10"/>
-    </row>
-    <row r="89" spans="1:9" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="10"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="F89" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" s="10" t="s">
-        <v>23</v>
       </c>
       <c r="H89" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I89" s="10"/>
-    </row>
-    <row r="90" spans="1:9" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I89" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="J89" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="K89" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
-      <c r="C90" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="D90" s="10" t="s">
-        <v>386</v>
-      </c>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
       <c r="E90" s="10" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I90" s="10"/>
-    </row>
-    <row r="91" spans="1:9" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J90" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="K90" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="124.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
+      <c r="C91" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>374</v>
+      </c>
       <c r="E91" s="10" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I91" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="80.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+      <c r="J91" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="K91" s="10"/>
+    </row>
+    <row r="92" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
-      <c r="C92" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="D92" s="10" t="s">
-        <v>368</v>
-      </c>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
       <c r="E92" s="10" t="s">
-        <v>24</v>
+        <v>353</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H92" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I92" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I92" s="10"/>
+      <c r="J92" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K92" s="10"/>
+    </row>
+    <row r="93" spans="1:11" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>171</v>
+        <v>356</v>
       </c>
       <c r="E93" s="10" t="s">
         <v>24</v>
@@ -4052,117 +4904,139 @@
       <c r="H93" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I93" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="172.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I93" s="10"/>
+      <c r="J93" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K93" s="10"/>
+    </row>
+    <row r="94" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10" t="s">
-        <v>366</v>
+        <v>170</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>367</v>
+        <v>171</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>370</v>
+        <v>24</v>
       </c>
       <c r="F94" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H94" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I94" s="10"/>
+      <c r="J94" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K94" s="10"/>
+    </row>
+    <row r="95" spans="1:11" ht="172.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="10"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="F95" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G94" s="10" t="s">
+      <c r="G95" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H94" s="10" t="s">
+      <c r="H95" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I94" s="10"/>
-    </row>
-    <row r="95" spans="1:9" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="10"/>
-      <c r="B95" s="10" t="s">
+      <c r="I95" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="J95" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="K95" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="132" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="10"/>
+      <c r="B96" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C95" s="10" t="s">
+      <c r="C96" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D95" s="10" t="s">
+      <c r="D96" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="E95" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="F95" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G95" s="10" t="s">
+      <c r="E96" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="F96" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G96" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H95" s="10" t="s">
+      <c r="H96" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I95" s="10"/>
-    </row>
-    <row r="96" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" s="10"/>
-      <c r="B96" s="10"/>
-      <c r="C96" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="D96" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="E96" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F96" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G96" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H96" s="10" t="s">
-        <v>24</v>
-      </c>
       <c r="I96" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+      <c r="J96" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="K96" s="10"/>
+    </row>
+    <row r="97" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A97" s="10"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>177</v>
+        <v>345</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>392</v>
+        <v>24</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H97" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I97" s="10"/>
-    </row>
-    <row r="98" spans="1:9" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J97" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K97" s="10"/>
+    </row>
+    <row r="98" spans="1:11" ht="167.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>223</v>
+        <v>177</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>355</v>
+        <v>380</v>
       </c>
       <c r="F98" s="10" t="s">
         <v>19</v>
@@ -4171,21 +5045,25 @@
         <v>23</v>
       </c>
       <c r="H98" s="10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I98" s="10"/>
-    </row>
-    <row r="99" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="J98" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="K98" s="10"/>
+    </row>
+    <row r="99" spans="1:11" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="F99" s="10" t="s">
         <v>19</v>
@@ -4197,18 +5075,24 @@
         <v>15</v>
       </c>
       <c r="I99" s="10"/>
-    </row>
-    <row r="100" spans="1:9" ht="213" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J99" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="K99" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="69" x14ac:dyDescent="0.3">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>401</v>
+        <v>347</v>
       </c>
       <c r="F100" s="10" t="s">
         <v>19</v>
@@ -4220,18 +5104,24 @@
         <v>15</v>
       </c>
       <c r="I100" s="10"/>
-    </row>
-    <row r="101" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J100" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="K100" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="213" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>357</v>
+        <v>389</v>
       </c>
       <c r="F101" s="10" t="s">
         <v>19</v>
@@ -4243,41 +5133,53 @@
         <v>15</v>
       </c>
       <c r="I101" s="10"/>
-    </row>
-    <row r="102" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="J101" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="K101" s="10" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A102" s="10"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10" t="s">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>229</v>
+        <v>182</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>358</v>
+        <v>446</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H102" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I102" s="10"/>
-    </row>
-    <row r="103" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="J102" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="K102" s="10" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="138" x14ac:dyDescent="0.3">
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10" t="s">
-        <v>184</v>
+        <v>228</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>186</v>
+        <v>229</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="F103" s="10" t="s">
         <v>19</v>
@@ -4289,41 +5191,53 @@
         <v>18</v>
       </c>
       <c r="I103" s="10"/>
-    </row>
-    <row r="104" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J103" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="K103" s="10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A104" s="10"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>360</v>
+        <v>469</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G104" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H104" s="10" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I104" s="10"/>
-    </row>
-    <row r="105" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="J104" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="K104" s="10" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A105" s="10"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>372</v>
+        <v>471</v>
       </c>
       <c r="F105" s="10" t="s">
         <v>19</v>
@@ -4332,21 +5246,27 @@
         <v>23</v>
       </c>
       <c r="H105" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I105" s="10"/>
-    </row>
-    <row r="106" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J105" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="K105" s="10" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="69" x14ac:dyDescent="0.3">
       <c r="A106" s="10"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="F106" s="10" t="s">
         <v>19</v>
@@ -4355,115 +5275,145 @@
         <v>23</v>
       </c>
       <c r="H106" s="10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I106" s="10"/>
-    </row>
-    <row r="107" spans="1:9" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J106" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="K106" s="10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="10"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10" t="s">
-        <v>239</v>
+        <v>190</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>402</v>
+        <v>449</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H107" s="10" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I107" s="10"/>
-    </row>
-    <row r="108" spans="1:9" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J107" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="K107" s="10" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="199.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10" t="s">
-        <v>403</v>
+        <v>239</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>404</v>
+        <v>240</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>405</v>
+        <v>449</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H108" s="10" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I108" s="10"/>
-    </row>
-    <row r="109" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+      <c r="J108" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="K108" s="10" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="199.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="10"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="F109" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G109" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H109" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I109" s="10"/>
+      <c r="J109" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="K109" s="10" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="151.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A110" s="10"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="D109" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="E109" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="F109" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G109" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H109" s="10" t="s">
+      <c r="D110" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="E110" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="F110" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G110" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H110" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I109" s="10"/>
-    </row>
-    <row r="110" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A110" s="10"/>
-      <c r="B110" s="10" t="s">
+      <c r="I110" s="10"/>
+      <c r="J110" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="K110" s="10" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A111" s="10"/>
+      <c r="B111" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="C110" s="10" t="s">
+      <c r="C111" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="D110" s="10" t="s">
+      <c r="D111" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="E110" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="F110" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G110" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H110" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I110" s="10"/>
-    </row>
-    <row r="111" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A111" s="10"/>
-      <c r="B111" s="10"/>
-      <c r="C111" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="D111" s="10" t="s">
-        <v>196</v>
-      </c>
       <c r="E111" s="10" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="F111" s="10" t="s">
         <v>19</v>
@@ -4475,18 +5425,24 @@
         <v>18</v>
       </c>
       <c r="I111" s="10"/>
-    </row>
-    <row r="112" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="J111" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="K111" s="10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A112" s="10"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="F112" s="10" t="s">
         <v>19</v>
@@ -4498,18 +5454,24 @@
         <v>18</v>
       </c>
       <c r="I112" s="10"/>
-    </row>
-    <row r="113" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="J112" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="K112" s="10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A113" s="10"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="F113" s="10" t="s">
         <v>19</v>
@@ -4521,67 +5483,83 @@
         <v>18</v>
       </c>
       <c r="I113" s="10"/>
-    </row>
-    <row r="114" spans="1:9" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="B114" s="10" t="s">
-        <v>233</v>
-      </c>
+      <c r="J113" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="K113" s="10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A114" s="10"/>
+      <c r="B114" s="10"/>
       <c r="C114" s="10" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F114" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G114" s="10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H114" s="10" t="s">
         <v>18</v>
       </c>
       <c r="I114" s="10"/>
-    </row>
-    <row r="115" spans="1:9" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="10"/>
-      <c r="B115" s="10"/>
+      <c r="J114" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="K114" s="10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>233</v>
+      </c>
       <c r="C115" s="10" t="s">
-        <v>66</v>
+        <v>234</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>387</v>
+        <v>236</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>24</v>
+        <v>337</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H115" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I115" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="169.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="I115" s="10"/>
+      <c r="J115" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="K115" s="10" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10" t="s">
-        <v>238</v>
+        <v>66</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="E116" s="10" t="s">
         <v>24</v>
@@ -4595,44 +5573,50 @@
       <c r="H116" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I116" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="174.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I116" s="10"/>
+      <c r="J116" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K116" s="10"/>
+    </row>
+    <row r="117" spans="1:11" ht="169.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="10"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>391</v>
+        <v>24</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G117" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H117" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I117" s="10"/>
-    </row>
-    <row r="118" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="J117" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K117" s="10"/>
+    </row>
+    <row r="118" spans="1:11" ht="174.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="10"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>349</v>
+        <v>379</v>
       </c>
       <c r="F118" s="10" t="s">
         <v>19</v>
@@ -4644,43 +5628,51 @@
         <v>18</v>
       </c>
       <c r="I118" s="10"/>
-    </row>
-    <row r="119" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="J118" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="K118" s="10"/>
+    </row>
+    <row r="119" spans="1:11" ht="69" x14ac:dyDescent="0.3">
       <c r="A119" s="10"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10" t="s">
-        <v>57</v>
+        <v>242</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H119" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I119" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="I119" s="10"/>
+      <c r="J119" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="K119" s="10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A120" s="10"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10" t="s">
-        <v>243</v>
+        <v>57</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>244</v>
+        <v>335</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>24</v>
+        <v>336</v>
       </c>
       <c r="F120" s="10" t="s">
         <v>24</v>
@@ -4691,103 +5683,153 @@
       <c r="H120" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I120" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="I120" s="10"/>
+      <c r="J120" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K120" s="10"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="10"/>
       <c r="B121" s="10"/>
       <c r="C121" s="10" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>294</v>
+        <v>244</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>343</v>
+        <v>24</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H121" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I121" s="10"/>
-    </row>
-    <row r="122" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J121" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K121" s="10"/>
+    </row>
+    <row r="122" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A122" s="10"/>
       <c r="B122" s="10"/>
       <c r="C122" s="10" t="s">
-        <v>339</v>
+        <v>286</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>340</v>
+        <v>287</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F122" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G122" s="10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H122" s="10" t="s">
         <v>18</v>
       </c>
       <c r="I122" s="10"/>
-    </row>
-    <row r="123" spans="1:9" ht="255" x14ac:dyDescent="0.25">
-      <c r="A123" s="10" t="s">
+      <c r="J122" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="K122" s="10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A123" s="10"/>
+      <c r="B123" s="10"/>
+      <c r="C123" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="E123" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="F123" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G123" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H123" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I123" s="10"/>
+      <c r="J123" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="K123" s="10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="220.8" x14ac:dyDescent="0.3">
+      <c r="A124" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="B124" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C123" s="10"/>
-      <c r="D123" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="E123" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="F123" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G123" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H123" s="10" t="s">
+      <c r="C124" s="10"/>
+      <c r="D124" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="E124" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="F124" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G124" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H124" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I123" s="10"/>
-    </row>
-    <row r="132" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="11" t="s">
+      <c r="I124" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="J124" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="K124" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" s="11" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A133" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B132" s="11"/>
-      <c r="C132" s="11"/>
-      <c r="D132" s="11"/>
-      <c r="E132" s="11"/>
-      <c r="F132" s="11"/>
-      <c r="G132" s="11"/>
-      <c r="H132" s="11"/>
-      <c r="I132" s="11"/>
+      <c r="B133" s="12"/>
+      <c r="C133" s="12"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="12"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="12"/>
+      <c r="H133" s="12"/>
+      <c r="I133" s="12"/>
+      <c r="J133" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A132:I132"/>
+    <mergeCell ref="A133:J133"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>DONOTDELETE!$E$3:$E$7</xm:f>
@@ -4795,7 +5837,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>H2:H123</xm:sqref>
+          <xm:sqref>H2:H124</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
@@ -4804,7 +5846,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>G2:G123</xm:sqref>
+          <xm:sqref>G2:G124</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
@@ -4813,7 +5855,13 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F123</xm:sqref>
+          <xm:sqref>F2:F124</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A19CCE0E-FA47-4C88-A967-16668E19DF4E}">
+          <x14:formula1>
+            <xm:f>DONOTDELETE!$G$3:$G$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2:I1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4823,20 +5871,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:E10"/>
+  <dimension ref="A2:G10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -4848,8 +5897,11 @@
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2" s="8" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -4859,8 +5911,11 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -4870,8 +5925,11 @@
       <c r="E4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -4882,7 +5940,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -4893,7 +5951,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -4904,7 +5962,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -4912,7 +5970,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -4920,14 +5978,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4939,16 +5997,16 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="57.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="92.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="57.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="92.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -4956,7 +6014,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>27</v>
@@ -4972,7 +6030,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>31</v>
@@ -4986,7 +6044,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>32</v>
@@ -5000,7 +6058,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>33</v>
@@ -5014,7 +6072,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>230</v>
@@ -5028,7 +6086,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -5036,7 +6094,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -5044,7 +6102,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -5052,7 +6110,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -5060,7 +6118,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -5068,7 +6126,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -5076,7 +6134,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -5084,7 +6142,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -5092,7 +6150,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -5100,7 +6158,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -5108,7 +6166,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -5116,7 +6174,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -5124,7 +6182,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -5132,7 +6190,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -5140,7 +6198,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -5148,7 +6206,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -5156,7 +6214,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -5164,7 +6222,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -5172,7 +6230,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -5180,7 +6238,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -5188,7 +6246,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -5196,7 +6254,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -5204,7 +6262,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -5212,7 +6270,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -5220,7 +6278,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -5228,7 +6286,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -5236,7 +6294,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -5244,7 +6302,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -5252,7 +6310,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -5260,7 +6318,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -5268,7 +6326,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -5276,7 +6334,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -5284,7 +6342,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -5292,7 +6350,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -5300,7 +6358,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -5308,7 +6366,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -5316,7 +6374,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -5324,7 +6382,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -5332,7 +6390,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -5340,7 +6398,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -5348,7 +6406,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -5356,7 +6414,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
